--- a/database_files/TestData.xlsx
+++ b/database_files/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03BDC9A4-EAA1-495D-B4F9-F511DC8E5B1F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91E0B686-4D20-4B2E-BCFC-6371A17C7F53}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="328">
   <si>
     <t>team 1</t>
   </si>
@@ -944,6 +944,72 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>AT1</t>
+  </si>
+  <si>
+    <t>AT2</t>
+  </si>
+  <si>
+    <t>AT3</t>
+  </si>
+  <si>
+    <t>AT4</t>
+  </si>
+  <si>
+    <t>AT5</t>
+  </si>
+  <si>
+    <t>AT6</t>
+  </si>
+  <si>
+    <t>AT7</t>
+  </si>
+  <si>
+    <t>AT8</t>
+  </si>
+  <si>
+    <t>AT9</t>
+  </si>
+  <si>
+    <t>AT10</t>
+  </si>
+  <si>
+    <t>AT11</t>
+  </si>
+  <si>
+    <t>AT12</t>
+  </si>
+  <si>
+    <t>AT13</t>
+  </si>
+  <si>
+    <t>AT14</t>
+  </si>
+  <si>
+    <t>AT15</t>
+  </si>
+  <si>
+    <t>AT16</t>
+  </si>
+  <si>
+    <t>AT17</t>
+  </si>
+  <si>
+    <t>AT18</t>
+  </si>
+  <si>
+    <t>AT19</t>
+  </si>
+  <si>
+    <t>AT20</t>
+  </si>
+  <si>
+    <t>ST1</t>
+  </si>
+  <si>
+    <t>ST2</t>
   </si>
 </sst>
 </file>
@@ -1264,8 +1330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
-      <selection activeCell="H298" sqref="H298"/>
+    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
+      <selection activeCell="D301" sqref="D301:D308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1285,7 +1351,7 @@
         <v>305</v>
       </c>
       <c r="D1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1299,7 +1365,7 @@
         <v>305</v>
       </c>
       <c r="D2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1313,7 +1379,7 @@
         <v>305</v>
       </c>
       <c r="D3" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1327,7 +1393,7 @@
         <v>305</v>
       </c>
       <c r="D4" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1341,7 +1407,7 @@
         <v>305</v>
       </c>
       <c r="D5" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1355,7 +1421,7 @@
         <v>305</v>
       </c>
       <c r="D6" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1369,7 +1435,7 @@
         <v>305</v>
       </c>
       <c r="D7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1383,7 +1449,7 @@
         <v>305</v>
       </c>
       <c r="D8" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1397,7 +1463,7 @@
         <v>305</v>
       </c>
       <c r="D9" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1411,7 +1477,7 @@
         <v>305</v>
       </c>
       <c r="D10" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1425,7 +1491,7 @@
         <v>305</v>
       </c>
       <c r="D11" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1439,7 +1505,7 @@
         <v>305</v>
       </c>
       <c r="D12" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1453,7 +1519,7 @@
         <v>305</v>
       </c>
       <c r="D13" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1467,7 +1533,7 @@
         <v>305</v>
       </c>
       <c r="D14" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1481,7 +1547,7 @@
         <v>305</v>
       </c>
       <c r="D15" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1495,7 +1561,7 @@
         <v>305</v>
       </c>
       <c r="D16" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1509,7 +1575,7 @@
         <v>305</v>
       </c>
       <c r="D17" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1523,7 +1589,7 @@
         <v>305</v>
       </c>
       <c r="D18" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1537,7 +1603,7 @@
         <v>305</v>
       </c>
       <c r="D19" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1551,7 +1617,7 @@
         <v>305</v>
       </c>
       <c r="D20" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1565,7 +1631,7 @@
         <v>305</v>
       </c>
       <c r="D21" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1579,7 +1645,7 @@
         <v>305</v>
       </c>
       <c r="D22" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1593,7 +1659,7 @@
         <v>305</v>
       </c>
       <c r="D23" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1607,7 +1673,7 @@
         <v>305</v>
       </c>
       <c r="D24" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1621,7 +1687,7 @@
         <v>305</v>
       </c>
       <c r="D25" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1635,7 +1701,7 @@
         <v>305</v>
       </c>
       <c r="D26" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1649,7 +1715,7 @@
         <v>305</v>
       </c>
       <c r="D27" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1663,7 +1729,7 @@
         <v>305</v>
       </c>
       <c r="D28" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1677,7 +1743,7 @@
         <v>305</v>
       </c>
       <c r="D29" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1691,7 +1757,7 @@
         <v>305</v>
       </c>
       <c r="D30" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1705,7 +1771,7 @@
         <v>305</v>
       </c>
       <c r="D31" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1719,7 +1785,7 @@
         <v>305</v>
       </c>
       <c r="D32" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1733,7 +1799,7 @@
         <v>305</v>
       </c>
       <c r="D33" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1747,7 +1813,7 @@
         <v>305</v>
       </c>
       <c r="D34" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1761,7 +1827,7 @@
         <v>305</v>
       </c>
       <c r="D35" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1775,7 +1841,7 @@
         <v>305</v>
       </c>
       <c r="D36" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1789,7 +1855,7 @@
         <v>305</v>
       </c>
       <c r="D37" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1803,7 +1869,7 @@
         <v>305</v>
       </c>
       <c r="D38" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1817,7 +1883,7 @@
         <v>305</v>
       </c>
       <c r="D39" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1831,7 +1897,7 @@
         <v>305</v>
       </c>
       <c r="D40" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1845,7 +1911,7 @@
         <v>305</v>
       </c>
       <c r="D41" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1859,7 +1925,7 @@
         <v>305</v>
       </c>
       <c r="D42" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1873,7 +1939,7 @@
         <v>305</v>
       </c>
       <c r="D43" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1887,7 +1953,7 @@
         <v>305</v>
       </c>
       <c r="D44" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1901,7 +1967,7 @@
         <v>305</v>
       </c>
       <c r="D45" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1915,7 +1981,7 @@
         <v>305</v>
       </c>
       <c r="D46" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1929,7 +1995,7 @@
         <v>305</v>
       </c>
       <c r="D47" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1943,7 +2009,7 @@
         <v>305</v>
       </c>
       <c r="D48" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1957,7 +2023,7 @@
         <v>305</v>
       </c>
       <c r="D49" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1971,7 +2037,7 @@
         <v>305</v>
       </c>
       <c r="D50" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1985,7 +2051,7 @@
         <v>305</v>
       </c>
       <c r="D51" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1999,7 +2065,7 @@
         <v>305</v>
       </c>
       <c r="D52" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2013,7 +2079,7 @@
         <v>305</v>
       </c>
       <c r="D53" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2027,7 +2093,7 @@
         <v>305</v>
       </c>
       <c r="D54" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2041,7 +2107,7 @@
         <v>305</v>
       </c>
       <c r="D55" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2055,7 +2121,7 @@
         <v>305</v>
       </c>
       <c r="D56" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -2069,7 +2135,7 @@
         <v>305</v>
       </c>
       <c r="D57" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2083,7 +2149,7 @@
         <v>305</v>
       </c>
       <c r="D58" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -2097,7 +2163,7 @@
         <v>305</v>
       </c>
       <c r="D59" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -2111,7 +2177,7 @@
         <v>305</v>
       </c>
       <c r="D60" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2125,7 +2191,7 @@
         <v>305</v>
       </c>
       <c r="D61" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2139,7 +2205,7 @@
         <v>305</v>
       </c>
       <c r="D62" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2153,7 +2219,7 @@
         <v>305</v>
       </c>
       <c r="D63" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -2167,7 +2233,7 @@
         <v>305</v>
       </c>
       <c r="D64" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2181,7 +2247,7 @@
         <v>305</v>
       </c>
       <c r="D65" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -2195,7 +2261,7 @@
         <v>305</v>
       </c>
       <c r="D66" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -2209,7 +2275,7 @@
         <v>305</v>
       </c>
       <c r="D67" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2223,7 +2289,7 @@
         <v>305</v>
       </c>
       <c r="D68" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2237,7 +2303,7 @@
         <v>305</v>
       </c>
       <c r="D69" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2251,7 +2317,7 @@
         <v>305</v>
       </c>
       <c r="D70" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -2265,7 +2331,7 @@
         <v>305</v>
       </c>
       <c r="D71" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2279,7 +2345,7 @@
         <v>305</v>
       </c>
       <c r="D72" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2293,7 +2359,7 @@
         <v>305</v>
       </c>
       <c r="D73" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2307,7 +2373,7 @@
         <v>305</v>
       </c>
       <c r="D74" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2321,7 +2387,7 @@
         <v>305</v>
       </c>
       <c r="D75" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2335,7 +2401,7 @@
         <v>305</v>
       </c>
       <c r="D76" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2349,7 +2415,7 @@
         <v>305</v>
       </c>
       <c r="D77" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2363,7 +2429,7 @@
         <v>305</v>
       </c>
       <c r="D78" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2377,7 +2443,7 @@
         <v>305</v>
       </c>
       <c r="D79" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -2391,7 +2457,7 @@
         <v>305</v>
       </c>
       <c r="D80" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -2405,7 +2471,7 @@
         <v>305</v>
       </c>
       <c r="D81" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2419,7 +2485,7 @@
         <v>305</v>
       </c>
       <c r="D82" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2433,7 +2499,7 @@
         <v>305</v>
       </c>
       <c r="D83" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2447,7 +2513,7 @@
         <v>305</v>
       </c>
       <c r="D84" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2461,7 +2527,7 @@
         <v>305</v>
       </c>
       <c r="D85" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2475,7 +2541,7 @@
         <v>305</v>
       </c>
       <c r="D86" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2489,7 +2555,7 @@
         <v>305</v>
       </c>
       <c r="D87" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2503,7 +2569,7 @@
         <v>305</v>
       </c>
       <c r="D88" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2517,7 +2583,7 @@
         <v>305</v>
       </c>
       <c r="D89" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2531,7 +2597,7 @@
         <v>305</v>
       </c>
       <c r="D90" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2545,7 +2611,7 @@
         <v>305</v>
       </c>
       <c r="D91" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2559,7 +2625,7 @@
         <v>305</v>
       </c>
       <c r="D92" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2573,7 +2639,7 @@
         <v>305</v>
       </c>
       <c r="D93" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2587,7 +2653,7 @@
         <v>305</v>
       </c>
       <c r="D94" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2601,7 +2667,7 @@
         <v>305</v>
       </c>
       <c r="D95" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2615,7 +2681,7 @@
         <v>305</v>
       </c>
       <c r="D96" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2629,7 +2695,7 @@
         <v>305</v>
       </c>
       <c r="D97" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2643,7 +2709,7 @@
         <v>305</v>
       </c>
       <c r="D98" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2657,7 +2723,7 @@
         <v>305</v>
       </c>
       <c r="D99" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2671,7 +2737,7 @@
         <v>305</v>
       </c>
       <c r="D100" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -2685,7 +2751,7 @@
         <v>305</v>
       </c>
       <c r="D101" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2699,7 +2765,7 @@
         <v>305</v>
       </c>
       <c r="D102" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -2713,7 +2779,7 @@
         <v>305</v>
       </c>
       <c r="D103" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -2727,7 +2793,7 @@
         <v>305</v>
       </c>
       <c r="D104" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -2741,7 +2807,7 @@
         <v>305</v>
       </c>
       <c r="D105" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -2755,7 +2821,7 @@
         <v>305</v>
       </c>
       <c r="D106" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -2769,7 +2835,7 @@
         <v>305</v>
       </c>
       <c r="D107" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -2783,7 +2849,7 @@
         <v>305</v>
       </c>
       <c r="D108" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -2797,7 +2863,7 @@
         <v>305</v>
       </c>
       <c r="D109" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -2811,7 +2877,7 @@
         <v>305</v>
       </c>
       <c r="D110" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -2825,7 +2891,7 @@
         <v>305</v>
       </c>
       <c r="D111" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -2839,7 +2905,7 @@
         <v>305</v>
       </c>
       <c r="D112" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -2853,7 +2919,7 @@
         <v>305</v>
       </c>
       <c r="D113" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -2867,7 +2933,7 @@
         <v>305</v>
       </c>
       <c r="D114" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -2881,7 +2947,7 @@
         <v>305</v>
       </c>
       <c r="D115" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -2895,7 +2961,7 @@
         <v>305</v>
       </c>
       <c r="D116" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -2909,7 +2975,7 @@
         <v>305</v>
       </c>
       <c r="D117" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -2923,7 +2989,7 @@
         <v>305</v>
       </c>
       <c r="D118" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -2937,7 +3003,7 @@
         <v>305</v>
       </c>
       <c r="D119" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -2951,7 +3017,7 @@
         <v>305</v>
       </c>
       <c r="D120" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -2965,7 +3031,7 @@
         <v>305</v>
       </c>
       <c r="D121" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -2979,7 +3045,7 @@
         <v>305</v>
       </c>
       <c r="D122" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -2993,7 +3059,7 @@
         <v>305</v>
       </c>
       <c r="D123" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -3007,7 +3073,7 @@
         <v>305</v>
       </c>
       <c r="D124" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -3021,7 +3087,7 @@
         <v>305</v>
       </c>
       <c r="D125" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -3035,7 +3101,7 @@
         <v>305</v>
       </c>
       <c r="D126" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -3049,7 +3115,7 @@
         <v>305</v>
       </c>
       <c r="D127" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -3063,7 +3129,7 @@
         <v>305</v>
       </c>
       <c r="D128" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -3077,7 +3143,7 @@
         <v>305</v>
       </c>
       <c r="D129" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -3091,7 +3157,7 @@
         <v>305</v>
       </c>
       <c r="D130" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -3105,7 +3171,7 @@
         <v>305</v>
       </c>
       <c r="D131" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -3119,7 +3185,7 @@
         <v>305</v>
       </c>
       <c r="D132" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -3133,7 +3199,7 @@
         <v>305</v>
       </c>
       <c r="D133" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -3147,7 +3213,7 @@
         <v>305</v>
       </c>
       <c r="D134" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -3161,7 +3227,7 @@
         <v>305</v>
       </c>
       <c r="D135" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -3175,7 +3241,7 @@
         <v>305</v>
       </c>
       <c r="D136" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -3189,7 +3255,7 @@
         <v>305</v>
       </c>
       <c r="D137" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -3203,7 +3269,7 @@
         <v>305</v>
       </c>
       <c r="D138" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -3217,7 +3283,7 @@
         <v>305</v>
       </c>
       <c r="D139" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -3231,7 +3297,7 @@
         <v>305</v>
       </c>
       <c r="D140" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -3245,7 +3311,7 @@
         <v>305</v>
       </c>
       <c r="D141" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -3259,7 +3325,7 @@
         <v>305</v>
       </c>
       <c r="D142" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -3273,7 +3339,7 @@
         <v>305</v>
       </c>
       <c r="D143" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -3287,7 +3353,7 @@
         <v>305</v>
       </c>
       <c r="D144" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -3301,7 +3367,7 @@
         <v>305</v>
       </c>
       <c r="D145" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -3315,7 +3381,7 @@
         <v>305</v>
       </c>
       <c r="D146" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -3329,7 +3395,7 @@
         <v>305</v>
       </c>
       <c r="D147" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -3343,7 +3409,7 @@
         <v>305</v>
       </c>
       <c r="D148" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -3357,7 +3423,7 @@
         <v>305</v>
       </c>
       <c r="D149" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -3371,7 +3437,7 @@
         <v>305</v>
       </c>
       <c r="D150" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -3385,7 +3451,7 @@
         <v>305</v>
       </c>
       <c r="D151" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -3399,7 +3465,7 @@
         <v>305</v>
       </c>
       <c r="D152" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -3413,7 +3479,7 @@
         <v>305</v>
       </c>
       <c r="D153" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -3427,7 +3493,7 @@
         <v>305</v>
       </c>
       <c r="D154" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -3441,7 +3507,7 @@
         <v>305</v>
       </c>
       <c r="D155" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -3455,7 +3521,7 @@
         <v>305</v>
       </c>
       <c r="D156" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -3469,7 +3535,7 @@
         <v>305</v>
       </c>
       <c r="D157" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -3483,7 +3549,7 @@
         <v>305</v>
       </c>
       <c r="D158" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -3497,7 +3563,7 @@
         <v>305</v>
       </c>
       <c r="D159" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -3511,7 +3577,7 @@
         <v>305</v>
       </c>
       <c r="D160" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -3525,7 +3591,7 @@
         <v>305</v>
       </c>
       <c r="D161" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -3539,7 +3605,7 @@
         <v>305</v>
       </c>
       <c r="D162" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -3553,7 +3619,7 @@
         <v>305</v>
       </c>
       <c r="D163" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -3567,7 +3633,7 @@
         <v>305</v>
       </c>
       <c r="D164" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -3581,7 +3647,7 @@
         <v>305</v>
       </c>
       <c r="D165" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -3595,7 +3661,7 @@
         <v>305</v>
       </c>
       <c r="D166" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -3609,7 +3675,7 @@
         <v>305</v>
       </c>
       <c r="D167" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -3623,7 +3689,7 @@
         <v>305</v>
       </c>
       <c r="D168" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -3637,7 +3703,7 @@
         <v>305</v>
       </c>
       <c r="D169" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -3651,7 +3717,7 @@
         <v>305</v>
       </c>
       <c r="D170" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -3665,7 +3731,7 @@
         <v>305</v>
       </c>
       <c r="D171" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -3679,7 +3745,7 @@
         <v>305</v>
       </c>
       <c r="D172" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -3693,7 +3759,7 @@
         <v>305</v>
       </c>
       <c r="D173" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -3707,7 +3773,7 @@
         <v>305</v>
       </c>
       <c r="D174" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -3721,7 +3787,7 @@
         <v>305</v>
       </c>
       <c r="D175" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -3735,7 +3801,7 @@
         <v>305</v>
       </c>
       <c r="D176" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -3749,7 +3815,7 @@
         <v>305</v>
       </c>
       <c r="D177" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -3763,7 +3829,7 @@
         <v>305</v>
       </c>
       <c r="D178" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -3777,7 +3843,7 @@
         <v>305</v>
       </c>
       <c r="D179" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -3791,7 +3857,7 @@
         <v>305</v>
       </c>
       <c r="D180" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -3805,7 +3871,7 @@
         <v>305</v>
       </c>
       <c r="D181" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -3819,7 +3885,7 @@
         <v>305</v>
       </c>
       <c r="D182" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -3833,7 +3899,7 @@
         <v>305</v>
       </c>
       <c r="D183" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -3847,7 +3913,7 @@
         <v>305</v>
       </c>
       <c r="D184" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -3861,7 +3927,7 @@
         <v>305</v>
       </c>
       <c r="D185" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -3875,7 +3941,7 @@
         <v>305</v>
       </c>
       <c r="D186" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -3889,7 +3955,7 @@
         <v>305</v>
       </c>
       <c r="D187" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -3903,7 +3969,7 @@
         <v>305</v>
       </c>
       <c r="D188" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -3917,7 +3983,7 @@
         <v>305</v>
       </c>
       <c r="D189" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -3931,7 +3997,7 @@
         <v>305</v>
       </c>
       <c r="D190" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -3945,7 +4011,7 @@
         <v>305</v>
       </c>
       <c r="D191" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -3959,7 +4025,7 @@
         <v>305</v>
       </c>
       <c r="D192" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -3973,7 +4039,7 @@
         <v>305</v>
       </c>
       <c r="D193" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -3987,7 +4053,7 @@
         <v>305</v>
       </c>
       <c r="D194" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -4001,7 +4067,7 @@
         <v>305</v>
       </c>
       <c r="D195" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -4015,7 +4081,7 @@
         <v>305</v>
       </c>
       <c r="D196" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -4029,7 +4095,7 @@
         <v>305</v>
       </c>
       <c r="D197" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -4043,7 +4109,7 @@
         <v>305</v>
       </c>
       <c r="D198" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -4057,7 +4123,7 @@
         <v>305</v>
       </c>
       <c r="D199" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -4071,7 +4137,7 @@
         <v>305</v>
       </c>
       <c r="D200" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -4085,7 +4151,7 @@
         <v>305</v>
       </c>
       <c r="D201" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -4099,7 +4165,7 @@
         <v>305</v>
       </c>
       <c r="D202" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -4113,7 +4179,7 @@
         <v>305</v>
       </c>
       <c r="D203" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -4127,7 +4193,7 @@
         <v>305</v>
       </c>
       <c r="D204" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -4141,7 +4207,7 @@
         <v>305</v>
       </c>
       <c r="D205" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -4155,7 +4221,7 @@
         <v>305</v>
       </c>
       <c r="D206" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -4169,7 +4235,7 @@
         <v>305</v>
       </c>
       <c r="D207" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -4183,7 +4249,7 @@
         <v>305</v>
       </c>
       <c r="D208" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -4197,7 +4263,7 @@
         <v>305</v>
       </c>
       <c r="D209" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -4211,7 +4277,7 @@
         <v>305</v>
       </c>
       <c r="D210" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -4225,7 +4291,7 @@
         <v>305</v>
       </c>
       <c r="D211" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -4239,7 +4305,7 @@
         <v>305</v>
       </c>
       <c r="D212" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -4253,7 +4319,7 @@
         <v>305</v>
       </c>
       <c r="D213" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -4267,7 +4333,7 @@
         <v>305</v>
       </c>
       <c r="D214" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -4281,7 +4347,7 @@
         <v>305</v>
       </c>
       <c r="D215" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -4295,7 +4361,7 @@
         <v>305</v>
       </c>
       <c r="D216" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -4309,7 +4375,7 @@
         <v>305</v>
       </c>
       <c r="D217" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -4323,7 +4389,7 @@
         <v>305</v>
       </c>
       <c r="D218" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -4337,7 +4403,7 @@
         <v>305</v>
       </c>
       <c r="D219" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -4351,7 +4417,7 @@
         <v>305</v>
       </c>
       <c r="D220" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -4365,7 +4431,7 @@
         <v>305</v>
       </c>
       <c r="D221" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -4379,7 +4445,7 @@
         <v>305</v>
       </c>
       <c r="D222" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -4393,7 +4459,7 @@
         <v>305</v>
       </c>
       <c r="D223" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -4407,7 +4473,7 @@
         <v>305</v>
       </c>
       <c r="D224" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -4421,7 +4487,7 @@
         <v>305</v>
       </c>
       <c r="D225" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -4435,7 +4501,7 @@
         <v>305</v>
       </c>
       <c r="D226" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -4449,7 +4515,7 @@
         <v>305</v>
       </c>
       <c r="D227" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -4463,7 +4529,7 @@
         <v>305</v>
       </c>
       <c r="D228" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -4477,7 +4543,7 @@
         <v>305</v>
       </c>
       <c r="D229" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -4491,7 +4557,7 @@
         <v>305</v>
       </c>
       <c r="D230" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -4505,7 +4571,7 @@
         <v>305</v>
       </c>
       <c r="D231" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -4519,7 +4585,7 @@
         <v>305</v>
       </c>
       <c r="D232" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -4533,7 +4599,7 @@
         <v>305</v>
       </c>
       <c r="D233" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -4547,7 +4613,7 @@
         <v>305</v>
       </c>
       <c r="D234" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -4561,7 +4627,7 @@
         <v>305</v>
       </c>
       <c r="D235" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -4575,7 +4641,7 @@
         <v>305</v>
       </c>
       <c r="D236" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -4589,7 +4655,7 @@
         <v>305</v>
       </c>
       <c r="D237" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -4603,7 +4669,7 @@
         <v>305</v>
       </c>
       <c r="D238" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -4617,7 +4683,7 @@
         <v>305</v>
       </c>
       <c r="D239" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -4631,7 +4697,7 @@
         <v>305</v>
       </c>
       <c r="D240" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -4645,7 +4711,7 @@
         <v>305</v>
       </c>
       <c r="D241" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -4659,7 +4725,7 @@
         <v>305</v>
       </c>
       <c r="D242" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -4673,7 +4739,7 @@
         <v>305</v>
       </c>
       <c r="D243" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -4687,7 +4753,7 @@
         <v>305</v>
       </c>
       <c r="D244" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -4701,7 +4767,7 @@
         <v>305</v>
       </c>
       <c r="D245" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -4715,7 +4781,7 @@
         <v>305</v>
       </c>
       <c r="D246" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -4729,7 +4795,7 @@
         <v>305</v>
       </c>
       <c r="D247" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -4743,7 +4809,7 @@
         <v>305</v>
       </c>
       <c r="D248" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -4757,7 +4823,7 @@
         <v>305</v>
       </c>
       <c r="D249" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -4771,7 +4837,7 @@
         <v>305</v>
       </c>
       <c r="D250" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -4785,7 +4851,7 @@
         <v>305</v>
       </c>
       <c r="D251" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -4799,7 +4865,7 @@
         <v>305</v>
       </c>
       <c r="D252" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -4813,7 +4879,7 @@
         <v>305</v>
       </c>
       <c r="D253" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -4827,7 +4893,7 @@
         <v>305</v>
       </c>
       <c r="D254" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -4841,7 +4907,7 @@
         <v>305</v>
       </c>
       <c r="D255" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -4855,7 +4921,7 @@
         <v>305</v>
       </c>
       <c r="D256" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -4869,7 +4935,7 @@
         <v>305</v>
       </c>
       <c r="D257" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -4883,7 +4949,7 @@
         <v>305</v>
       </c>
       <c r="D258" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -4897,7 +4963,7 @@
         <v>305</v>
       </c>
       <c r="D259" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -4911,7 +4977,7 @@
         <v>305</v>
       </c>
       <c r="D260" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -4925,7 +4991,7 @@
         <v>305</v>
       </c>
       <c r="D261" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -4939,7 +5005,7 @@
         <v>305</v>
       </c>
       <c r="D262" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -4953,7 +5019,7 @@
         <v>305</v>
       </c>
       <c r="D263" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -4967,7 +5033,7 @@
         <v>305</v>
       </c>
       <c r="D264" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -4981,7 +5047,7 @@
         <v>305</v>
       </c>
       <c r="D265" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -4995,7 +5061,7 @@
         <v>305</v>
       </c>
       <c r="D266" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -5009,7 +5075,7 @@
         <v>305</v>
       </c>
       <c r="D267" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -5023,7 +5089,7 @@
         <v>305</v>
       </c>
       <c r="D268" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -5037,7 +5103,7 @@
         <v>305</v>
       </c>
       <c r="D269" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -5051,7 +5117,7 @@
         <v>305</v>
       </c>
       <c r="D270" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -5065,7 +5131,7 @@
         <v>305</v>
       </c>
       <c r="D271" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -5079,7 +5145,7 @@
         <v>305</v>
       </c>
       <c r="D272" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -5093,7 +5159,7 @@
         <v>305</v>
       </c>
       <c r="D273" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -5107,7 +5173,7 @@
         <v>305</v>
       </c>
       <c r="D274" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -5121,7 +5187,7 @@
         <v>305</v>
       </c>
       <c r="D275" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -5135,7 +5201,7 @@
         <v>305</v>
       </c>
       <c r="D276" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -5149,7 +5215,7 @@
         <v>305</v>
       </c>
       <c r="D277" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -5163,7 +5229,7 @@
         <v>305</v>
       </c>
       <c r="D278" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -5177,7 +5243,7 @@
         <v>305</v>
       </c>
       <c r="D279" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -5191,7 +5257,7 @@
         <v>305</v>
       </c>
       <c r="D280" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -5205,7 +5271,7 @@
         <v>305</v>
       </c>
       <c r="D281" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -5219,7 +5285,7 @@
         <v>305</v>
       </c>
       <c r="D282" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -5233,7 +5299,7 @@
         <v>305</v>
       </c>
       <c r="D283" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -5247,7 +5313,7 @@
         <v>305</v>
       </c>
       <c r="D284" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -5261,7 +5327,7 @@
         <v>305</v>
       </c>
       <c r="D285" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -5275,7 +5341,7 @@
         <v>305</v>
       </c>
       <c r="D286" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -5289,7 +5355,7 @@
         <v>305</v>
       </c>
       <c r="D287" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -5303,7 +5369,7 @@
         <v>305</v>
       </c>
       <c r="D288" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -5317,7 +5383,7 @@
         <v>305</v>
       </c>
       <c r="D289" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -5331,7 +5397,7 @@
         <v>305</v>
       </c>
       <c r="D290" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -5345,7 +5411,7 @@
         <v>305</v>
       </c>
       <c r="D291" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -5359,7 +5425,7 @@
         <v>305</v>
       </c>
       <c r="D292" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -5373,7 +5439,7 @@
         <v>305</v>
       </c>
       <c r="D293" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -5387,7 +5453,7 @@
         <v>305</v>
       </c>
       <c r="D294" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -5401,7 +5467,7 @@
         <v>305</v>
       </c>
       <c r="D295" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -5415,7 +5481,7 @@
         <v>305</v>
       </c>
       <c r="D296" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -5429,7 +5495,7 @@
         <v>305</v>
       </c>
       <c r="D297" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -5443,7 +5509,7 @@
         <v>305</v>
       </c>
       <c r="D298" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -5457,7 +5523,7 @@
         <v>305</v>
       </c>
       <c r="D299" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -5471,7 +5537,7 @@
         <v>305</v>
       </c>
       <c r="D300" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>

--- a/database_files/TestData.xlsx
+++ b/database_files/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91E0B686-4D20-4B2E-BCFC-6371A17C7F53}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0042E590-3B7D-4FF7-89C1-45A9388217D2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,303 +28,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="328">
   <si>
-    <t>team 1</t>
-  </si>
-  <si>
-    <t>team 2</t>
-  </si>
-  <si>
-    <t>team 3</t>
-  </si>
-  <si>
-    <t>team 4</t>
-  </si>
-  <si>
-    <t>team 5</t>
-  </si>
-  <si>
-    <t>team 6</t>
-  </si>
-  <si>
-    <t>team 7</t>
-  </si>
-  <si>
-    <t>team 8</t>
-  </si>
-  <si>
-    <t>team 9</t>
-  </si>
-  <si>
-    <t>team 10</t>
-  </si>
-  <si>
-    <t>team 11</t>
-  </si>
-  <si>
-    <t>team 12</t>
-  </si>
-  <si>
-    <t>team 13</t>
-  </si>
-  <si>
-    <t>team 14</t>
-  </si>
-  <si>
-    <t>team 15</t>
-  </si>
-  <si>
-    <t>team 16</t>
-  </si>
-  <si>
-    <t>team 17</t>
-  </si>
-  <si>
-    <t>team 18</t>
-  </si>
-  <si>
-    <t>team 19</t>
-  </si>
-  <si>
-    <t>team 20</t>
-  </si>
-  <si>
-    <t>team 21</t>
-  </si>
-  <si>
-    <t>team 22</t>
-  </si>
-  <si>
-    <t>team 23</t>
-  </si>
-  <si>
-    <t>team 24</t>
-  </si>
-  <si>
-    <t>team 25</t>
-  </si>
-  <si>
-    <t>team 26</t>
-  </si>
-  <si>
-    <t>team 27</t>
-  </si>
-  <si>
-    <t>team 28</t>
-  </si>
-  <si>
-    <t>team 29</t>
-  </si>
-  <si>
-    <t>team 30</t>
-  </si>
-  <si>
-    <t>team 31</t>
-  </si>
-  <si>
-    <t>team 32</t>
-  </si>
-  <si>
-    <t>team 33</t>
-  </si>
-  <si>
-    <t>team 34</t>
-  </si>
-  <si>
-    <t>team 35</t>
-  </si>
-  <si>
-    <t>team 36</t>
-  </si>
-  <si>
-    <t>team 37</t>
-  </si>
-  <si>
-    <t>team 38</t>
-  </si>
-  <si>
-    <t>team 39</t>
-  </si>
-  <si>
-    <t>team 40</t>
-  </si>
-  <si>
-    <t>team 41</t>
-  </si>
-  <si>
-    <t>team 42</t>
-  </si>
-  <si>
-    <t>team 43</t>
-  </si>
-  <si>
-    <t>team 44</t>
-  </si>
-  <si>
-    <t>team 45</t>
-  </si>
-  <si>
-    <t>team 46</t>
-  </si>
-  <si>
-    <t>team 47</t>
-  </si>
-  <si>
-    <t>team 48</t>
-  </si>
-  <si>
-    <t>team 49</t>
-  </si>
-  <si>
-    <t>team 50</t>
-  </si>
-  <si>
-    <t>team 51</t>
-  </si>
-  <si>
-    <t>team 52</t>
-  </si>
-  <si>
-    <t>team 53</t>
-  </si>
-  <si>
-    <t>team 54</t>
-  </si>
-  <si>
-    <t>team 55</t>
-  </si>
-  <si>
-    <t>team 56</t>
-  </si>
-  <si>
-    <t>team 57</t>
-  </si>
-  <si>
-    <t>team 58</t>
-  </si>
-  <si>
-    <t>team 59</t>
-  </si>
-  <si>
-    <t>team 60</t>
-  </si>
-  <si>
-    <t>team 61</t>
-  </si>
-  <si>
-    <t>team 62</t>
-  </si>
-  <si>
-    <t>team 63</t>
-  </si>
-  <si>
-    <t>team 64</t>
-  </si>
-  <si>
-    <t>team 65</t>
-  </si>
-  <si>
-    <t>team 66</t>
-  </si>
-  <si>
-    <t>team 67</t>
-  </si>
-  <si>
-    <t>team 68</t>
-  </si>
-  <si>
-    <t>team 69</t>
-  </si>
-  <si>
-    <t>team 70</t>
-  </si>
-  <si>
-    <t>team 71</t>
-  </si>
-  <si>
-    <t>team 72</t>
-  </si>
-  <si>
-    <t>team 73</t>
-  </si>
-  <si>
-    <t>team 74</t>
-  </si>
-  <si>
-    <t>team 75</t>
-  </si>
-  <si>
-    <t>team 76</t>
-  </si>
-  <si>
-    <t>team 77</t>
-  </si>
-  <si>
-    <t>team 78</t>
-  </si>
-  <si>
-    <t>team 79</t>
-  </si>
-  <si>
-    <t>team 80</t>
-  </si>
-  <si>
-    <t>team 81</t>
-  </si>
-  <si>
-    <t>team 82</t>
-  </si>
-  <si>
-    <t>team 83</t>
-  </si>
-  <si>
-    <t>team 84</t>
-  </si>
-  <si>
-    <t>team 85</t>
-  </si>
-  <si>
-    <t>team 86</t>
-  </si>
-  <si>
-    <t>team 87</t>
-  </si>
-  <si>
-    <t>team 88</t>
-  </si>
-  <si>
-    <t>team 89</t>
-  </si>
-  <si>
-    <t>team 90</t>
-  </si>
-  <si>
-    <t>team 91</t>
-  </si>
-  <si>
-    <t>team 92</t>
-  </si>
-  <si>
-    <t>team 93</t>
-  </si>
-  <si>
-    <t>team 94</t>
-  </si>
-  <si>
-    <t>team 95</t>
-  </si>
-  <si>
-    <t>team 96</t>
-  </si>
-  <si>
-    <t>team 97</t>
-  </si>
-  <si>
-    <t>team 98</t>
-  </si>
-  <si>
-    <t>team 99</t>
-  </si>
-  <si>
     <t>team 100</t>
   </si>
   <si>
@@ -1010,6 +713,303 @@
   </si>
   <si>
     <t>ST2</t>
+  </si>
+  <si>
+    <t>team 001</t>
+  </si>
+  <si>
+    <t>team 002</t>
+  </si>
+  <si>
+    <t>team 003</t>
+  </si>
+  <si>
+    <t>team 004</t>
+  </si>
+  <si>
+    <t>team 005</t>
+  </si>
+  <si>
+    <t>team 006</t>
+  </si>
+  <si>
+    <t>team 007</t>
+  </si>
+  <si>
+    <t>team 008</t>
+  </si>
+  <si>
+    <t>team 009</t>
+  </si>
+  <si>
+    <t>team 010</t>
+  </si>
+  <si>
+    <t>team 011</t>
+  </si>
+  <si>
+    <t>team 012</t>
+  </si>
+  <si>
+    <t>team 013</t>
+  </si>
+  <si>
+    <t>team 014</t>
+  </si>
+  <si>
+    <t>team 015</t>
+  </si>
+  <si>
+    <t>team 016</t>
+  </si>
+  <si>
+    <t>team 017</t>
+  </si>
+  <si>
+    <t>team 018</t>
+  </si>
+  <si>
+    <t>team 019</t>
+  </si>
+  <si>
+    <t>team 020</t>
+  </si>
+  <si>
+    <t>team 021</t>
+  </si>
+  <si>
+    <t>team 022</t>
+  </si>
+  <si>
+    <t>team 023</t>
+  </si>
+  <si>
+    <t>team 024</t>
+  </si>
+  <si>
+    <t>team 025</t>
+  </si>
+  <si>
+    <t>team 026</t>
+  </si>
+  <si>
+    <t>team 027</t>
+  </si>
+  <si>
+    <t>team 028</t>
+  </si>
+  <si>
+    <t>team 029</t>
+  </si>
+  <si>
+    <t>team 030</t>
+  </si>
+  <si>
+    <t>team 031</t>
+  </si>
+  <si>
+    <t>team 032</t>
+  </si>
+  <si>
+    <t>team 033</t>
+  </si>
+  <si>
+    <t>team 034</t>
+  </si>
+  <si>
+    <t>team 035</t>
+  </si>
+  <si>
+    <t>team 036</t>
+  </si>
+  <si>
+    <t>team 037</t>
+  </si>
+  <si>
+    <t>team 038</t>
+  </si>
+  <si>
+    <t>team 039</t>
+  </si>
+  <si>
+    <t>team 040</t>
+  </si>
+  <si>
+    <t>team 041</t>
+  </si>
+  <si>
+    <t>team 042</t>
+  </si>
+  <si>
+    <t>team 043</t>
+  </si>
+  <si>
+    <t>team 044</t>
+  </si>
+  <si>
+    <t>team 045</t>
+  </si>
+  <si>
+    <t>team 046</t>
+  </si>
+  <si>
+    <t>team 047</t>
+  </si>
+  <si>
+    <t>team 048</t>
+  </si>
+  <si>
+    <t>team 049</t>
+  </si>
+  <si>
+    <t>team 050</t>
+  </si>
+  <si>
+    <t>team 051</t>
+  </si>
+  <si>
+    <t>team 052</t>
+  </si>
+  <si>
+    <t>team 053</t>
+  </si>
+  <si>
+    <t>team 054</t>
+  </si>
+  <si>
+    <t>team 055</t>
+  </si>
+  <si>
+    <t>team 056</t>
+  </si>
+  <si>
+    <t>team 057</t>
+  </si>
+  <si>
+    <t>team 058</t>
+  </si>
+  <si>
+    <t>team 059</t>
+  </si>
+  <si>
+    <t>team 060</t>
+  </si>
+  <si>
+    <t>team 061</t>
+  </si>
+  <si>
+    <t>team 062</t>
+  </si>
+  <si>
+    <t>team 063</t>
+  </si>
+  <si>
+    <t>team 064</t>
+  </si>
+  <si>
+    <t>team 065</t>
+  </si>
+  <si>
+    <t>team 066</t>
+  </si>
+  <si>
+    <t>team 067</t>
+  </si>
+  <si>
+    <t>team 068</t>
+  </si>
+  <si>
+    <t>team 069</t>
+  </si>
+  <si>
+    <t>team 070</t>
+  </si>
+  <si>
+    <t>team 071</t>
+  </si>
+  <si>
+    <t>team 072</t>
+  </si>
+  <si>
+    <t>team 073</t>
+  </si>
+  <si>
+    <t>team 074</t>
+  </si>
+  <si>
+    <t>team 075</t>
+  </si>
+  <si>
+    <t>team 076</t>
+  </si>
+  <si>
+    <t>team 077</t>
+  </si>
+  <si>
+    <t>team 078</t>
+  </si>
+  <si>
+    <t>team 079</t>
+  </si>
+  <si>
+    <t>team 080</t>
+  </si>
+  <si>
+    <t>team 081</t>
+  </si>
+  <si>
+    <t>team 082</t>
+  </si>
+  <si>
+    <t>team 083</t>
+  </si>
+  <si>
+    <t>team 084</t>
+  </si>
+  <si>
+    <t>team 085</t>
+  </si>
+  <si>
+    <t>team 086</t>
+  </si>
+  <si>
+    <t>team 087</t>
+  </si>
+  <si>
+    <t>team 088</t>
+  </si>
+  <si>
+    <t>team 089</t>
+  </si>
+  <si>
+    <t>team 090</t>
+  </si>
+  <si>
+    <t>team 091</t>
+  </si>
+  <si>
+    <t>team 092</t>
+  </si>
+  <si>
+    <t>team 093</t>
+  </si>
+  <si>
+    <t>team 094</t>
+  </si>
+  <si>
+    <t>team 095</t>
+  </si>
+  <si>
+    <t>team 096</t>
+  </si>
+  <si>
+    <t>team 097</t>
+  </si>
+  <si>
+    <t>team 098</t>
+  </si>
+  <si>
+    <t>team 099</t>
   </si>
 </sst>
 </file>
@@ -1330,8 +1330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
-      <selection activeCell="D301" sqref="D301:D308"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1342,4202 +1342,4202 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="B1" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C1" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D1" t="s">
-        <v>306</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="B2" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C2" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D2" t="s">
-        <v>307</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>231</v>
       </c>
       <c r="B3" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C3" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D3" t="s">
-        <v>308</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>232</v>
       </c>
       <c r="B4" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C4" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D4" t="s">
-        <v>309</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
       <c r="B5" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C5" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D5" t="s">
-        <v>310</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>234</v>
       </c>
       <c r="B6" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C6" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D6" t="s">
-        <v>311</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>235</v>
       </c>
       <c r="B7" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C7" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D7" t="s">
-        <v>312</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>236</v>
       </c>
       <c r="B8" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C8" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D8" t="s">
-        <v>313</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>237</v>
       </c>
       <c r="B9" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C9" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D9" t="s">
-        <v>314</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>238</v>
       </c>
       <c r="B10" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C10" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D10" t="s">
-        <v>315</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>239</v>
       </c>
       <c r="B11" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C11" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D11" t="s">
-        <v>316</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>240</v>
       </c>
       <c r="B12" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C12" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D12" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>241</v>
       </c>
       <c r="B13" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C13" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D13" t="s">
-        <v>318</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>242</v>
       </c>
       <c r="B14" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C14" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D14" t="s">
-        <v>319</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>243</v>
       </c>
       <c r="B15" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C15" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D15" t="s">
-        <v>320</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>244</v>
       </c>
       <c r="B16" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C16" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D16" t="s">
-        <v>321</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>245</v>
       </c>
       <c r="B17" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C17" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D17" t="s">
-        <v>322</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>246</v>
       </c>
       <c r="B18" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C18" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D18" t="s">
-        <v>323</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>247</v>
       </c>
       <c r="B19" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C19" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D19" t="s">
-        <v>324</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>248</v>
       </c>
       <c r="B20" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C20" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D20" t="s">
-        <v>325</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>249</v>
       </c>
       <c r="B21" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C21" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D21" t="s">
-        <v>326</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>250</v>
       </c>
       <c r="B22" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C22" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D22" t="s">
-        <v>327</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>251</v>
       </c>
       <c r="B23" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C23" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D23" t="s">
-        <v>306</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>252</v>
       </c>
       <c r="B24" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C24" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D24" t="s">
-        <v>307</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>253</v>
       </c>
       <c r="B25" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C25" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D25" t="s">
-        <v>308</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>254</v>
       </c>
       <c r="B26" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C26" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D26" t="s">
-        <v>309</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C27" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D27" t="s">
-        <v>310</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>256</v>
       </c>
       <c r="B28" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C28" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D28" t="s">
-        <v>311</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>257</v>
       </c>
       <c r="B29" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C29" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D29" t="s">
-        <v>312</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>258</v>
       </c>
       <c r="B30" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C30" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D30" t="s">
-        <v>313</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>259</v>
       </c>
       <c r="B31" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C31" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D31" t="s">
-        <v>314</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>260</v>
       </c>
       <c r="B32" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C32" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D32" t="s">
-        <v>315</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>261</v>
       </c>
       <c r="B33" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C33" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D33" t="s">
-        <v>316</v>
+        <v>217</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>262</v>
       </c>
       <c r="B34" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C34" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D34" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>263</v>
       </c>
       <c r="B35" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C35" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D35" t="s">
-        <v>318</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>264</v>
       </c>
       <c r="B36" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C36" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D36" t="s">
-        <v>319</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>265</v>
       </c>
       <c r="B37" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C37" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D37" t="s">
-        <v>320</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>266</v>
       </c>
       <c r="B38" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C38" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D38" t="s">
-        <v>321</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>267</v>
       </c>
       <c r="B39" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C39" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D39" t="s">
-        <v>322</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>268</v>
       </c>
       <c r="B40" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C40" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D40" t="s">
-        <v>323</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>269</v>
       </c>
       <c r="B41" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C41" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D41" t="s">
-        <v>324</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>270</v>
       </c>
       <c r="B42" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C42" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D42" t="s">
-        <v>325</v>
+        <v>226</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>271</v>
       </c>
       <c r="B43" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C43" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D43" t="s">
-        <v>326</v>
+        <v>227</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>272</v>
       </c>
       <c r="B44" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C44" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D44" t="s">
-        <v>327</v>
+        <v>228</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>273</v>
       </c>
       <c r="B45" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C45" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D45" t="s">
-        <v>306</v>
+        <v>207</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>274</v>
       </c>
       <c r="B46" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C46" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D46" t="s">
-        <v>307</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>275</v>
       </c>
       <c r="B47" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C47" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D47" t="s">
-        <v>308</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>276</v>
       </c>
       <c r="B48" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C48" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D48" t="s">
-        <v>309</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>277</v>
       </c>
       <c r="B49" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C49" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D49" t="s">
-        <v>310</v>
+        <v>211</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>278</v>
       </c>
       <c r="B50" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C50" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D50" t="s">
-        <v>311</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>279</v>
       </c>
       <c r="B51" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C51" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D51" t="s">
-        <v>312</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>280</v>
       </c>
       <c r="B52" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C52" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D52" t="s">
-        <v>313</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>281</v>
       </c>
       <c r="B53" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C53" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D53" t="s">
-        <v>314</v>
+        <v>215</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>282</v>
       </c>
       <c r="B54" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C54" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D54" t="s">
-        <v>315</v>
+        <v>216</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>283</v>
       </c>
       <c r="B55" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C55" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D55" t="s">
-        <v>316</v>
+        <v>217</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>284</v>
       </c>
       <c r="B56" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C56" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D56" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>285</v>
       </c>
       <c r="B57" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C57" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D57" t="s">
-        <v>318</v>
+        <v>219</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>286</v>
       </c>
       <c r="B58" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C58" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D58" t="s">
-        <v>319</v>
+        <v>220</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>287</v>
       </c>
       <c r="B59" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C59" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D59" t="s">
-        <v>320</v>
+        <v>221</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>288</v>
       </c>
       <c r="B60" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C60" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D60" t="s">
-        <v>321</v>
+        <v>222</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>289</v>
       </c>
       <c r="B61" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C61" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D61" t="s">
-        <v>322</v>
+        <v>223</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>290</v>
       </c>
       <c r="B62" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C62" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D62" t="s">
-        <v>323</v>
+        <v>224</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>291</v>
       </c>
       <c r="B63" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C63" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D63" t="s">
-        <v>324</v>
+        <v>225</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>292</v>
       </c>
       <c r="B64" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C64" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D64" t="s">
-        <v>325</v>
+        <v>226</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>293</v>
       </c>
       <c r="B65" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C65" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D65" t="s">
-        <v>326</v>
+        <v>227</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>294</v>
       </c>
       <c r="B66" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C66" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D66" t="s">
-        <v>327</v>
+        <v>228</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>295</v>
       </c>
       <c r="B67" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C67" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D67" t="s">
-        <v>306</v>
+        <v>207</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>296</v>
       </c>
       <c r="B68" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C68" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D68" t="s">
-        <v>307</v>
+        <v>208</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>297</v>
       </c>
       <c r="B69" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C69" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D69" t="s">
-        <v>308</v>
+        <v>209</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>298</v>
       </c>
       <c r="B70" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C70" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D70" t="s">
-        <v>309</v>
+        <v>210</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>299</v>
       </c>
       <c r="B71" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C71" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D71" t="s">
-        <v>310</v>
+        <v>211</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>300</v>
       </c>
       <c r="B72" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C72" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D72" t="s">
-        <v>311</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>301</v>
       </c>
       <c r="B73" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C73" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D73" t="s">
-        <v>312</v>
+        <v>213</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>302</v>
       </c>
       <c r="B74" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C74" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D74" t="s">
-        <v>313</v>
+        <v>214</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>303</v>
       </c>
       <c r="B75" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C75" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D75" t="s">
-        <v>314</v>
+        <v>215</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>304</v>
       </c>
       <c r="B76" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C76" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D76" t="s">
-        <v>315</v>
+        <v>216</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>305</v>
       </c>
       <c r="B77" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C77" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D77" t="s">
-        <v>316</v>
+        <v>217</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>306</v>
       </c>
       <c r="B78" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C78" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D78" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>307</v>
       </c>
       <c r="B79" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C79" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D79" t="s">
-        <v>318</v>
+        <v>219</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>308</v>
       </c>
       <c r="B80" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C80" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D80" t="s">
-        <v>319</v>
+        <v>220</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>309</v>
       </c>
       <c r="B81" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C81" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D81" t="s">
-        <v>320</v>
+        <v>221</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>310</v>
       </c>
       <c r="B82" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C82" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D82" t="s">
-        <v>321</v>
+        <v>222</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>311</v>
       </c>
       <c r="B83" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C83" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D83" t="s">
-        <v>322</v>
+        <v>223</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>312</v>
       </c>
       <c r="B84" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C84" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D84" t="s">
-        <v>323</v>
+        <v>224</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>313</v>
       </c>
       <c r="B85" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C85" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D85" t="s">
-        <v>324</v>
+        <v>225</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>314</v>
       </c>
       <c r="B86" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C86" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D86" t="s">
-        <v>325</v>
+        <v>226</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>315</v>
       </c>
       <c r="B87" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C87" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D87" t="s">
-        <v>326</v>
+        <v>227</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>316</v>
       </c>
       <c r="B88" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C88" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D88" t="s">
-        <v>327</v>
+        <v>228</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>317</v>
       </c>
       <c r="B89" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C89" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D89" t="s">
-        <v>306</v>
+        <v>207</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>318</v>
       </c>
       <c r="B90" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C90" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D90" t="s">
-        <v>307</v>
+        <v>208</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>319</v>
       </c>
       <c r="B91" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C91" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D91" t="s">
-        <v>308</v>
+        <v>209</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>320</v>
       </c>
       <c r="B92" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C92" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D92" t="s">
-        <v>309</v>
+        <v>210</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>321</v>
       </c>
       <c r="B93" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C93" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D93" t="s">
-        <v>310</v>
+        <v>211</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>322</v>
       </c>
       <c r="B94" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C94" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D94" t="s">
-        <v>311</v>
+        <v>212</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>323</v>
       </c>
       <c r="B95" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C95" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D95" t="s">
-        <v>312</v>
+        <v>213</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>324</v>
       </c>
       <c r="B96" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C96" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D96" t="s">
-        <v>313</v>
+        <v>214</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>325</v>
       </c>
       <c r="B97" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C97" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D97" t="s">
-        <v>314</v>
+        <v>215</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>326</v>
       </c>
       <c r="B98" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C98" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D98" t="s">
-        <v>315</v>
+        <v>216</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>327</v>
       </c>
       <c r="B99" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C99" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D99" t="s">
-        <v>316</v>
+        <v>217</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="B100" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C100" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D100" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="B101" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C101" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D101" t="s">
-        <v>318</v>
+        <v>219</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="B102" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C102" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D102" t="s">
-        <v>319</v>
+        <v>220</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="B103" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C103" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D103" t="s">
-        <v>320</v>
+        <v>221</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="B104" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C104" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D104" t="s">
-        <v>321</v>
+        <v>222</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>104</v>
+        <v>5</v>
       </c>
       <c r="B105" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C105" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D105" t="s">
-        <v>322</v>
+        <v>223</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="B106" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C106" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D106" t="s">
-        <v>323</v>
+        <v>224</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="B107" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C107" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D107" t="s">
-        <v>324</v>
+        <v>225</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>107</v>
+        <v>8</v>
       </c>
       <c r="B108" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C108" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D108" t="s">
-        <v>325</v>
+        <v>226</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="B109" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C109" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D109" t="s">
-        <v>326</v>
+        <v>227</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="B110" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C110" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D110" t="s">
-        <v>327</v>
+        <v>228</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C111" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D111" t="s">
-        <v>306</v>
+        <v>207</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="B112" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C112" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D112" t="s">
-        <v>307</v>
+        <v>208</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="B113" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C113" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D113" t="s">
-        <v>308</v>
+        <v>209</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="B114" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C114" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D114" t="s">
-        <v>309</v>
+        <v>210</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>114</v>
+        <v>15</v>
       </c>
       <c r="B115" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C115" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D115" t="s">
-        <v>310</v>
+        <v>211</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="B116" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C116" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D116" t="s">
-        <v>311</v>
+        <v>212</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="B117" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C117" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D117" t="s">
-        <v>312</v>
+        <v>213</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="B118" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C118" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D118" t="s">
-        <v>313</v>
+        <v>214</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="B119" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C119" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D119" t="s">
-        <v>314</v>
+        <v>215</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="B120" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C120" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D120" t="s">
-        <v>315</v>
+        <v>216</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="B121" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C121" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D121" t="s">
-        <v>316</v>
+        <v>217</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="B122" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C122" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D122" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="B123" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C123" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D123" t="s">
-        <v>318</v>
+        <v>219</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>123</v>
+        <v>24</v>
       </c>
       <c r="B124" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C124" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D124" t="s">
-        <v>319</v>
+        <v>220</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="B125" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C125" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D125" t="s">
-        <v>320</v>
+        <v>221</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="B126" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C126" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D126" t="s">
-        <v>321</v>
+        <v>222</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="B127" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C127" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D127" t="s">
-        <v>322</v>
+        <v>223</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="B128" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C128" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D128" t="s">
-        <v>323</v>
+        <v>224</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="B129" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C129" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D129" t="s">
-        <v>324</v>
+        <v>225</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="B130" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C130" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D130" t="s">
-        <v>325</v>
+        <v>226</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="B131" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C131" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D131" t="s">
-        <v>326</v>
+        <v>227</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="B132" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C132" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D132" t="s">
-        <v>327</v>
+        <v>228</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="B133" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C133" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D133" t="s">
-        <v>306</v>
+        <v>207</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="B134" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C134" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D134" t="s">
-        <v>307</v>
+        <v>208</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="B135" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C135" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D135" t="s">
-        <v>308</v>
+        <v>209</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="B136" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C136" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D136" t="s">
-        <v>309</v>
+        <v>210</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="B137" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C137" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D137" t="s">
-        <v>310</v>
+        <v>211</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="B138" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C138" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D138" t="s">
-        <v>311</v>
+        <v>212</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="B139" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C139" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D139" t="s">
-        <v>312</v>
+        <v>213</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="B140" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C140" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D140" t="s">
-        <v>313</v>
+        <v>214</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="B141" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C141" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D141" t="s">
-        <v>314</v>
+        <v>215</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c r="B142" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C142" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D142" t="s">
-        <v>315</v>
+        <v>216</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>142</v>
+        <v>43</v>
       </c>
       <c r="B143" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C143" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D143" t="s">
-        <v>316</v>
+        <v>217</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="B144" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C144" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D144" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="B145" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C145" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D145" t="s">
-        <v>318</v>
+        <v>219</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>145</v>
+        <v>46</v>
       </c>
       <c r="B146" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C146" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D146" t="s">
-        <v>319</v>
+        <v>220</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>146</v>
+        <v>47</v>
       </c>
       <c r="B147" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C147" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D147" t="s">
-        <v>320</v>
+        <v>221</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>147</v>
+        <v>48</v>
       </c>
       <c r="B148" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C148" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D148" t="s">
-        <v>321</v>
+        <v>222</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>148</v>
+        <v>49</v>
       </c>
       <c r="B149" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C149" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D149" t="s">
-        <v>322</v>
+        <v>223</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="B150" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C150" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D150" t="s">
-        <v>323</v>
+        <v>224</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="B151" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C151" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D151" t="s">
-        <v>324</v>
+        <v>225</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>151</v>
+        <v>52</v>
       </c>
       <c r="B152" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C152" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D152" t="s">
-        <v>325</v>
+        <v>226</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>152</v>
+        <v>53</v>
       </c>
       <c r="B153" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C153" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D153" t="s">
-        <v>326</v>
+        <v>227</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="B154" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C154" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D154" t="s">
-        <v>327</v>
+        <v>228</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>154</v>
+        <v>55</v>
       </c>
       <c r="B155" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C155" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D155" t="s">
-        <v>306</v>
+        <v>207</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>155</v>
+        <v>56</v>
       </c>
       <c r="B156" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C156" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D156" t="s">
-        <v>307</v>
+        <v>208</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>156</v>
+        <v>57</v>
       </c>
       <c r="B157" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C157" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D157" t="s">
-        <v>308</v>
+        <v>209</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>157</v>
+        <v>58</v>
       </c>
       <c r="B158" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C158" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D158" t="s">
-        <v>309</v>
+        <v>210</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>158</v>
+        <v>59</v>
       </c>
       <c r="B159" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C159" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D159" t="s">
-        <v>310</v>
+        <v>211</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>159</v>
+        <v>60</v>
       </c>
       <c r="B160" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C160" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D160" t="s">
-        <v>311</v>
+        <v>212</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="B161" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C161" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D161" t="s">
-        <v>312</v>
+        <v>213</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>161</v>
+        <v>62</v>
       </c>
       <c r="B162" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C162" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D162" t="s">
-        <v>313</v>
+        <v>214</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>162</v>
+        <v>63</v>
       </c>
       <c r="B163" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C163" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D163" t="s">
-        <v>314</v>
+        <v>215</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>163</v>
+        <v>64</v>
       </c>
       <c r="B164" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C164" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D164" t="s">
-        <v>315</v>
+        <v>216</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>164</v>
+        <v>65</v>
       </c>
       <c r="B165" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C165" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D165" t="s">
-        <v>316</v>
+        <v>217</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>165</v>
+        <v>66</v>
       </c>
       <c r="B166" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C166" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D166" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>166</v>
+        <v>67</v>
       </c>
       <c r="B167" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C167" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D167" t="s">
-        <v>318</v>
+        <v>219</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="B168" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C168" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D168" t="s">
-        <v>319</v>
+        <v>220</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>168</v>
+        <v>69</v>
       </c>
       <c r="B169" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C169" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D169" t="s">
-        <v>320</v>
+        <v>221</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>169</v>
+        <v>70</v>
       </c>
       <c r="B170" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C170" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D170" t="s">
-        <v>321</v>
+        <v>222</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>170</v>
+        <v>71</v>
       </c>
       <c r="B171" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C171" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D171" t="s">
-        <v>322</v>
+        <v>223</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>171</v>
+        <v>72</v>
       </c>
       <c r="B172" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C172" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D172" t="s">
-        <v>323</v>
+        <v>224</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>172</v>
+        <v>73</v>
       </c>
       <c r="B173" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C173" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D173" t="s">
-        <v>324</v>
+        <v>225</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="B174" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C174" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D174" t="s">
-        <v>325</v>
+        <v>226</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="B175" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C175" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D175" t="s">
-        <v>326</v>
+        <v>227</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="B176" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C176" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D176" t="s">
-        <v>327</v>
+        <v>228</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="B177" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C177" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D177" t="s">
-        <v>306</v>
+        <v>207</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="B178" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C178" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D178" t="s">
-        <v>307</v>
+        <v>208</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="B179" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C179" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D179" t="s">
-        <v>308</v>
+        <v>209</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="B180" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C180" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D180" t="s">
-        <v>309</v>
+        <v>210</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="B181" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C181" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D181" t="s">
-        <v>310</v>
+        <v>211</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>181</v>
+        <v>82</v>
       </c>
       <c r="B182" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C182" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D182" t="s">
-        <v>311</v>
+        <v>212</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>182</v>
+        <v>83</v>
       </c>
       <c r="B183" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C183" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D183" t="s">
-        <v>312</v>
+        <v>213</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>183</v>
+        <v>84</v>
       </c>
       <c r="B184" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C184" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D184" t="s">
-        <v>313</v>
+        <v>214</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>184</v>
+        <v>85</v>
       </c>
       <c r="B185" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C185" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D185" t="s">
-        <v>314</v>
+        <v>215</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>185</v>
+        <v>86</v>
       </c>
       <c r="B186" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C186" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D186" t="s">
-        <v>315</v>
+        <v>216</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>186</v>
+        <v>87</v>
       </c>
       <c r="B187" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C187" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D187" t="s">
-        <v>316</v>
+        <v>217</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>187</v>
+        <v>88</v>
       </c>
       <c r="B188" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C188" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D188" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>188</v>
+        <v>89</v>
       </c>
       <c r="B189" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C189" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D189" t="s">
-        <v>318</v>
+        <v>219</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="B190" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C190" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D190" t="s">
-        <v>319</v>
+        <v>220</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>190</v>
+        <v>91</v>
       </c>
       <c r="B191" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C191" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D191" t="s">
-        <v>320</v>
+        <v>221</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>191</v>
+        <v>92</v>
       </c>
       <c r="B192" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C192" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D192" t="s">
-        <v>321</v>
+        <v>222</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>192</v>
+        <v>93</v>
       </c>
       <c r="B193" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C193" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D193" t="s">
-        <v>322</v>
+        <v>223</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>193</v>
+        <v>94</v>
       </c>
       <c r="B194" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C194" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D194" t="s">
-        <v>323</v>
+        <v>224</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>194</v>
+        <v>95</v>
       </c>
       <c r="B195" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C195" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D195" t="s">
-        <v>324</v>
+        <v>225</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>195</v>
+        <v>96</v>
       </c>
       <c r="B196" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C196" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D196" t="s">
-        <v>325</v>
+        <v>226</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>196</v>
+        <v>97</v>
       </c>
       <c r="B197" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C197" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D197" t="s">
-        <v>326</v>
+        <v>227</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>197</v>
+        <v>98</v>
       </c>
       <c r="B198" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C198" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D198" t="s">
-        <v>327</v>
+        <v>228</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="B199" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C199" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D199" t="s">
-        <v>306</v>
+        <v>207</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="B200" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C200" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D200" t="s">
-        <v>307</v>
+        <v>208</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="B201" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C201" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D201" t="s">
-        <v>308</v>
+        <v>209</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>201</v>
+        <v>102</v>
       </c>
       <c r="B202" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C202" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D202" t="s">
-        <v>309</v>
+        <v>210</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>202</v>
+        <v>103</v>
       </c>
       <c r="B203" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C203" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D203" t="s">
-        <v>310</v>
+        <v>211</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="B204" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C204" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D204" t="s">
-        <v>311</v>
+        <v>212</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="B205" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C205" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D205" t="s">
-        <v>312</v>
+        <v>213</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>205</v>
+        <v>106</v>
       </c>
       <c r="B206" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C206" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D206" t="s">
-        <v>313</v>
+        <v>214</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="B207" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C207" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D207" t="s">
-        <v>314</v>
+        <v>215</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="B208" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C208" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D208" t="s">
-        <v>315</v>
+        <v>216</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="B209" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C209" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D209" t="s">
-        <v>316</v>
+        <v>217</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="B210" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C210" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D210" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>210</v>
+        <v>111</v>
       </c>
       <c r="B211" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C211" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D211" t="s">
-        <v>318</v>
+        <v>219</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>211</v>
+        <v>112</v>
       </c>
       <c r="B212" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C212" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D212" t="s">
-        <v>319</v>
+        <v>220</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>212</v>
+        <v>113</v>
       </c>
       <c r="B213" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C213" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D213" t="s">
-        <v>320</v>
+        <v>221</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>213</v>
+        <v>114</v>
       </c>
       <c r="B214" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C214" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D214" t="s">
-        <v>321</v>
+        <v>222</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>214</v>
+        <v>115</v>
       </c>
       <c r="B215" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C215" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D215" t="s">
-        <v>322</v>
+        <v>223</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>215</v>
+        <v>116</v>
       </c>
       <c r="B216" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C216" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D216" t="s">
-        <v>323</v>
+        <v>224</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="B217" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C217" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D217" t="s">
-        <v>324</v>
+        <v>225</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>217</v>
+        <v>118</v>
       </c>
       <c r="B218" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C218" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D218" t="s">
-        <v>325</v>
+        <v>226</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>218</v>
+        <v>119</v>
       </c>
       <c r="B219" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C219" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D219" t="s">
-        <v>326</v>
+        <v>227</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>219</v>
+        <v>120</v>
       </c>
       <c r="B220" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C220" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D220" t="s">
-        <v>327</v>
+        <v>228</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>220</v>
+        <v>121</v>
       </c>
       <c r="B221" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C221" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D221" t="s">
-        <v>306</v>
+        <v>207</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>221</v>
+        <v>122</v>
       </c>
       <c r="B222" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C222" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D222" t="s">
-        <v>307</v>
+        <v>208</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>222</v>
+        <v>123</v>
       </c>
       <c r="B223" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C223" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D223" t="s">
-        <v>308</v>
+        <v>209</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>223</v>
+        <v>124</v>
       </c>
       <c r="B224" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C224" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D224" t="s">
-        <v>309</v>
+        <v>210</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>224</v>
+        <v>125</v>
       </c>
       <c r="B225" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C225" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D225" t="s">
-        <v>310</v>
+        <v>211</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>225</v>
+        <v>126</v>
       </c>
       <c r="B226" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C226" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D226" t="s">
-        <v>311</v>
+        <v>212</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>226</v>
+        <v>127</v>
       </c>
       <c r="B227" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C227" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D227" t="s">
-        <v>312</v>
+        <v>213</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>227</v>
+        <v>128</v>
       </c>
       <c r="B228" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C228" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D228" t="s">
-        <v>313</v>
+        <v>214</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>228</v>
+        <v>129</v>
       </c>
       <c r="B229" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C229" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D229" t="s">
-        <v>314</v>
+        <v>215</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>229</v>
+        <v>130</v>
       </c>
       <c r="B230" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C230" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D230" t="s">
-        <v>315</v>
+        <v>216</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>230</v>
+        <v>131</v>
       </c>
       <c r="B231" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C231" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D231" t="s">
-        <v>316</v>
+        <v>217</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>231</v>
+        <v>132</v>
       </c>
       <c r="B232" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C232" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D232" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>232</v>
+        <v>133</v>
       </c>
       <c r="B233" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C233" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D233" t="s">
-        <v>318</v>
+        <v>219</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>233</v>
+        <v>134</v>
       </c>
       <c r="B234" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C234" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D234" t="s">
-        <v>319</v>
+        <v>220</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>234</v>
+        <v>135</v>
       </c>
       <c r="B235" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C235" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D235" t="s">
-        <v>320</v>
+        <v>221</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>235</v>
+        <v>136</v>
       </c>
       <c r="B236" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C236" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D236" t="s">
-        <v>321</v>
+        <v>222</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>236</v>
+        <v>137</v>
       </c>
       <c r="B237" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C237" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D237" t="s">
-        <v>322</v>
+        <v>223</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>237</v>
+        <v>138</v>
       </c>
       <c r="B238" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C238" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D238" t="s">
-        <v>323</v>
+        <v>224</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>238</v>
+        <v>139</v>
       </c>
       <c r="B239" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C239" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D239" t="s">
-        <v>324</v>
+        <v>225</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>239</v>
+        <v>140</v>
       </c>
       <c r="B240" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C240" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D240" t="s">
-        <v>325</v>
+        <v>226</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>240</v>
+        <v>141</v>
       </c>
       <c r="B241" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C241" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D241" t="s">
-        <v>326</v>
+        <v>227</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>241</v>
+        <v>142</v>
       </c>
       <c r="B242" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C242" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D242" t="s">
-        <v>327</v>
+        <v>228</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>242</v>
+        <v>143</v>
       </c>
       <c r="B243" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C243" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D243" t="s">
-        <v>306</v>
+        <v>207</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>243</v>
+        <v>144</v>
       </c>
       <c r="B244" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C244" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D244" t="s">
-        <v>307</v>
+        <v>208</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>244</v>
+        <v>145</v>
       </c>
       <c r="B245" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C245" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D245" t="s">
-        <v>308</v>
+        <v>209</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>245</v>
+        <v>146</v>
       </c>
       <c r="B246" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C246" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D246" t="s">
-        <v>309</v>
+        <v>210</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>246</v>
+        <v>147</v>
       </c>
       <c r="B247" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C247" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D247" t="s">
-        <v>310</v>
+        <v>211</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>247</v>
+        <v>148</v>
       </c>
       <c r="B248" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C248" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D248" t="s">
-        <v>311</v>
+        <v>212</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>248</v>
+        <v>149</v>
       </c>
       <c r="B249" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C249" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D249" t="s">
-        <v>312</v>
+        <v>213</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>249</v>
+        <v>150</v>
       </c>
       <c r="B250" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C250" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D250" t="s">
-        <v>313</v>
+        <v>214</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="B251" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C251" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D251" t="s">
-        <v>314</v>
+        <v>215</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>251</v>
+        <v>152</v>
       </c>
       <c r="B252" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C252" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D252" t="s">
-        <v>315</v>
+        <v>216</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>252</v>
+        <v>153</v>
       </c>
       <c r="B253" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C253" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D253" t="s">
-        <v>316</v>
+        <v>217</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>253</v>
+        <v>154</v>
       </c>
       <c r="B254" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C254" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D254" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>254</v>
+        <v>155</v>
       </c>
       <c r="B255" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C255" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D255" t="s">
-        <v>318</v>
+        <v>219</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>255</v>
+        <v>156</v>
       </c>
       <c r="B256" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C256" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D256" t="s">
-        <v>319</v>
+        <v>220</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>256</v>
+        <v>157</v>
       </c>
       <c r="B257" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C257" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D257" t="s">
-        <v>320</v>
+        <v>221</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>257</v>
+        <v>158</v>
       </c>
       <c r="B258" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C258" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D258" t="s">
-        <v>321</v>
+        <v>222</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>258</v>
+        <v>159</v>
       </c>
       <c r="B259" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C259" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D259" t="s">
-        <v>322</v>
+        <v>223</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>259</v>
+        <v>160</v>
       </c>
       <c r="B260" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C260" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D260" t="s">
-        <v>323</v>
+        <v>224</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>260</v>
+        <v>161</v>
       </c>
       <c r="B261" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C261" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D261" t="s">
-        <v>324</v>
+        <v>225</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>261</v>
+        <v>162</v>
       </c>
       <c r="B262" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C262" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D262" t="s">
-        <v>325</v>
+        <v>226</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>262</v>
+        <v>163</v>
       </c>
       <c r="B263" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C263" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D263" t="s">
-        <v>326</v>
+        <v>227</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>263</v>
+        <v>164</v>
       </c>
       <c r="B264" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C264" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D264" t="s">
-        <v>327</v>
+        <v>228</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>264</v>
+        <v>165</v>
       </c>
       <c r="B265" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C265" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D265" t="s">
-        <v>306</v>
+        <v>207</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>265</v>
+        <v>166</v>
       </c>
       <c r="B266" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C266" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D266" t="s">
-        <v>307</v>
+        <v>208</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>266</v>
+        <v>167</v>
       </c>
       <c r="B267" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C267" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D267" t="s">
-        <v>308</v>
+        <v>209</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>267</v>
+        <v>168</v>
       </c>
       <c r="B268" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C268" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D268" t="s">
-        <v>309</v>
+        <v>210</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>268</v>
+        <v>169</v>
       </c>
       <c r="B269" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C269" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D269" t="s">
-        <v>310</v>
+        <v>211</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="B270" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C270" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D270" t="s">
-        <v>311</v>
+        <v>212</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>270</v>
+        <v>171</v>
       </c>
       <c r="B271" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C271" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D271" t="s">
-        <v>312</v>
+        <v>213</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="B272" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C272" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D272" t="s">
-        <v>313</v>
+        <v>214</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>272</v>
+        <v>173</v>
       </c>
       <c r="B273" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C273" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D273" t="s">
-        <v>314</v>
+        <v>215</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>273</v>
+        <v>174</v>
       </c>
       <c r="B274" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C274" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D274" t="s">
-        <v>315</v>
+        <v>216</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>274</v>
+        <v>175</v>
       </c>
       <c r="B275" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C275" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D275" t="s">
-        <v>316</v>
+        <v>217</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>275</v>
+        <v>176</v>
       </c>
       <c r="B276" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C276" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D276" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>276</v>
+        <v>177</v>
       </c>
       <c r="B277" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C277" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D277" t="s">
-        <v>318</v>
+        <v>219</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>277</v>
+        <v>178</v>
       </c>
       <c r="B278" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C278" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D278" t="s">
-        <v>319</v>
+        <v>220</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>278</v>
+        <v>179</v>
       </c>
       <c r="B279" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C279" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D279" t="s">
-        <v>320</v>
+        <v>221</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>279</v>
+        <v>180</v>
       </c>
       <c r="B280" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C280" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D280" t="s">
-        <v>321</v>
+        <v>222</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>280</v>
+        <v>181</v>
       </c>
       <c r="B281" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C281" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D281" t="s">
-        <v>322</v>
+        <v>223</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>281</v>
+        <v>182</v>
       </c>
       <c r="B282" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C282" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D282" t="s">
-        <v>323</v>
+        <v>224</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>282</v>
+        <v>183</v>
       </c>
       <c r="B283" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C283" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D283" t="s">
-        <v>324</v>
+        <v>225</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>283</v>
+        <v>184</v>
       </c>
       <c r="B284" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C284" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D284" t="s">
-        <v>325</v>
+        <v>226</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>284</v>
+        <v>185</v>
       </c>
       <c r="B285" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C285" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D285" t="s">
-        <v>326</v>
+        <v>227</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>285</v>
+        <v>186</v>
       </c>
       <c r="B286" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C286" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D286" t="s">
-        <v>327</v>
+        <v>228</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>286</v>
+        <v>187</v>
       </c>
       <c r="B287" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C287" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D287" t="s">
-        <v>306</v>
+        <v>207</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>287</v>
+        <v>188</v>
       </c>
       <c r="B288" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C288" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D288" t="s">
-        <v>307</v>
+        <v>208</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>288</v>
+        <v>189</v>
       </c>
       <c r="B289" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C289" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D289" t="s">
-        <v>308</v>
+        <v>209</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>289</v>
+        <v>190</v>
       </c>
       <c r="B290" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C290" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D290" t="s">
-        <v>309</v>
+        <v>210</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>290</v>
+        <v>191</v>
       </c>
       <c r="B291" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C291" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D291" t="s">
-        <v>310</v>
+        <v>211</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>291</v>
+        <v>192</v>
       </c>
       <c r="B292" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C292" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D292" t="s">
-        <v>311</v>
+        <v>212</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>292</v>
+        <v>193</v>
       </c>
       <c r="B293" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C293" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D293" t="s">
-        <v>312</v>
+        <v>213</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>293</v>
+        <v>194</v>
       </c>
       <c r="B294" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C294" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D294" t="s">
-        <v>313</v>
+        <v>214</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>294</v>
+        <v>195</v>
       </c>
       <c r="B295" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C295" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D295" t="s">
-        <v>314</v>
+        <v>215</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>295</v>
+        <v>196</v>
       </c>
       <c r="B296" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C296" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D296" t="s">
-        <v>315</v>
+        <v>216</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>296</v>
+        <v>197</v>
       </c>
       <c r="B297" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C297" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D297" t="s">
-        <v>316</v>
+        <v>217</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>297</v>
+        <v>198</v>
       </c>
       <c r="B298" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C298" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D298" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>298</v>
+        <v>199</v>
       </c>
       <c r="B299" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C299" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D299" t="s">
-        <v>318</v>
+        <v>219</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>299</v>
+        <v>200</v>
       </c>
       <c r="B300" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C300" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D300" t="s">
-        <v>319</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
